--- a/BIMetadata.xlsx
+++ b/BIMetadata.xlsx
@@ -11,21 +11,414 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+  <si>
+    <t>xx Main Version xx</t>
+  </si>
+  <si>
+    <t>Sourceaudio Id</t>
+  </si>
+  <si>
+    <t>Catalog</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>Master ID</t>
+  </si>
+  <si>
+    <t>Album</t>
+  </si>
+  <si>
+    <t>Album Code</t>
+  </si>
+  <si>
+    <t>Album Description</t>
+  </si>
+  <si>
+    <t>Album Genre</t>
+  </si>
+  <si>
+    <t>Track Number</t>
+  </si>
+  <si>
+    <t>Artist</t>
+  </si>
+  <si>
+    <t>Composer</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Genres</t>
+  </si>
+  <si>
+    <t>Tempos</t>
+  </si>
+  <si>
+    <t>Cue Types</t>
+  </si>
+  <si>
+    <t>BPM</t>
+  </si>
+  <si>
+    <t>Release Date</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Mood</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>Lyrics</t>
+  </si>
+  <si>
+    <t>Has Vocal</t>
+  </si>
+  <si>
+    <t>Explicit</t>
+  </si>
+  <si>
+    <t>Isrc</t>
+  </si>
+  <si>
+    <t>Iswc</t>
+  </si>
+  <si>
+    <t>Publisher 1 Company</t>
+  </si>
+  <si>
+    <t>Publisher 1 Pro Affiliation</t>
+  </si>
+  <si>
+    <t>Publisher 1 CAE/IPI</t>
+  </si>
+  <si>
+    <t>Publisher 1 Ownership Share</t>
+  </si>
+  <si>
+    <t>Publisher 1 Role</t>
+  </si>
+  <si>
+    <t>Publisher 1 Collection Share Percentage</t>
+  </si>
+  <si>
+    <t>Publisher 1 Collection Share Territory</t>
+  </si>
+  <si>
+    <t>Writer 1 First Name</t>
+  </si>
+  <si>
+    <t>Writer 1 Last Name</t>
+  </si>
+  <si>
+    <t>Writer 1 Pro Affiliation</t>
+  </si>
+  <si>
+    <t>Writer 1 CAE/IPI</t>
+  </si>
+  <si>
+    <t>Writer 1 Ownership Share</t>
+  </si>
+  <si>
+    <t>Writer 1 Publisher</t>
+  </si>
+  <si>
+    <t>Writer 1 Role</t>
+  </si>
+  <si>
+    <t>Publisher 2 Company</t>
+  </si>
+  <si>
+    <t>Publisher 2 Pro Affiliation</t>
+  </si>
+  <si>
+    <t>Publisher 2 CAE/IPI</t>
+  </si>
+  <si>
+    <t>Publisher 2 Ownership Share</t>
+  </si>
+  <si>
+    <t>Publisher 2 Role</t>
+  </si>
+  <si>
+    <t>Publisher 2 Collection Share Percentage</t>
+  </si>
+  <si>
+    <t>Publisher 2 Collection Share Territory</t>
+  </si>
+  <si>
+    <t>Writer 2 First Name</t>
+  </si>
+  <si>
+    <t>Writer 2 Last Name</t>
+  </si>
+  <si>
+    <t>Writer 2 Pro Affiliation</t>
+  </si>
+  <si>
+    <t>Writer 2 CAE/IPI</t>
+  </si>
+  <si>
+    <t>Writer 2 Ownership Share</t>
+  </si>
+  <si>
+    <t>Writer 2 Publisher</t>
+  </si>
+  <si>
+    <t>Writer 2 Role</t>
+  </si>
+  <si>
+    <t>Publisher 3 Company</t>
+  </si>
+  <si>
+    <t>Publisher 3 Pro Affiliation</t>
+  </si>
+  <si>
+    <t>Publisher 3 CAE/IPI</t>
+  </si>
+  <si>
+    <t>Publisher 3 Ownership Share</t>
+  </si>
+  <si>
+    <t>Publisher 3 Role</t>
+  </si>
+  <si>
+    <t>Publisher 3 Collection Share Percentage</t>
+  </si>
+  <si>
+    <t>Publisher 3 Collection Share Territory</t>
+  </si>
+  <si>
+    <t>Writer 3 First Name</t>
+  </si>
+  <si>
+    <t>Writer 3 Last Name</t>
+  </si>
+  <si>
+    <t>Writer 3 Pro Affiliation</t>
+  </si>
+  <si>
+    <t>Writer 3 CAE/IPI</t>
+  </si>
+  <si>
+    <t>Writer 3 Ownership Share</t>
+  </si>
+  <si>
+    <t>Writer 3 Publisher</t>
+  </si>
+  <si>
+    <t>Writer 3 Role</t>
+  </si>
+  <si>
+    <t>Publisher 4 Company</t>
+  </si>
+  <si>
+    <t>Publisher 4 Pro Affiliation</t>
+  </si>
+  <si>
+    <t>Publisher 4 CAE/IPI</t>
+  </si>
+  <si>
+    <t>Publisher 4 Ownership Share</t>
+  </si>
+  <si>
+    <t>Publisher 4 Role</t>
+  </si>
+  <si>
+    <t>Publisher 4 Collection Share Percentage</t>
+  </si>
+  <si>
+    <t>Publisher 4 Collection Share Territory</t>
+  </si>
+  <si>
+    <t>Writer 4 First Name</t>
+  </si>
+  <si>
+    <t>Writer 4 Last Name</t>
+  </si>
+  <si>
+    <t>Writer 4 Pro Affiliation</t>
+  </si>
+  <si>
+    <t>Writer 4 CAE/IPI</t>
+  </si>
+  <si>
+    <t>Writer 4 Ownership Share</t>
+  </si>
+  <si>
+    <t>Writer 4 Publisher</t>
+  </si>
+  <si>
+    <t>Writer 4 Role</t>
+  </si>
+  <si>
+    <t>Publisher 5 Company</t>
+  </si>
+  <si>
+    <t>Publisher 5 Pro Affiliation</t>
+  </si>
+  <si>
+    <t>Publisher 5 CAE/IPI</t>
+  </si>
+  <si>
+    <t>Publisher 5 Ownership Share</t>
+  </si>
+  <si>
+    <t>Publisher 5 Role</t>
+  </si>
+  <si>
+    <t>Publisher 5 Collection Share Percentage</t>
+  </si>
+  <si>
+    <t>Publisher 5 Collection Share Territory</t>
+  </si>
+  <si>
+    <t>Writer 5 First Name</t>
+  </si>
+  <si>
+    <t>Writer 5 Last Name</t>
+  </si>
+  <si>
+    <t>Writer 5 Pro Affiliation</t>
+  </si>
+  <si>
+    <t>Writer 5 CAE/IPI</t>
+  </si>
+  <si>
+    <t>Writer 5 Ownership Share</t>
+  </si>
+  <si>
+    <t>Writer 5 Publisher</t>
+  </si>
+  <si>
+    <t>Writer 5 Role</t>
+  </si>
+  <si>
+    <t>Instrumentation</t>
+  </si>
+  <si>
+    <t>Pro</t>
+  </si>
+  <si>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>DL Music</t>
+  </si>
   <si>
     <t>All New Me v1 (Full)</t>
   </si>
   <si>
+    <t>DLM - All New Me v1 (Full).mp3</t>
+  </si>
+  <si>
+    <t>undefined, undefined Vol. 40</t>
+  </si>
+  <si>
+    <t>undefined(undefined)</t>
+  </si>
+  <si>
+    <t>Fast)</t>
+  </si>
+  <si>
+    <t>Songs</t>
+  </si>
+  <si>
+    <t>8/6/2020</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>US-RRD-20-00001</t>
+  </si>
+  <si>
+    <t>R40</t>
+  </si>
+  <si>
+    <t>All New Me v2 (Drums)</t>
+  </si>
+  <si>
+    <t>DLM - All New Me v2 (Drums).mp3</t>
+  </si>
+  <si>
+    <t>N/A)</t>
+  </si>
+  <si>
+    <t>US-RRD-20-00002</t>
+  </si>
+  <si>
     <t>Another Chance v1 (Full)</t>
   </si>
   <si>
+    <t>DLM - Another Chance v1 (Full).mp3</t>
+  </si>
+  <si>
+    <t>US-RRD-20-00004</t>
+  </si>
+  <si>
+    <t>Reflection Pool v1 (No BsNDrms)</t>
+  </si>
+  <si>
+    <t>DLM - Reflection Pool v1 (No BsNDrms).mp3</t>
+  </si>
+  <si>
+    <t>US-RRD-20-00007</t>
+  </si>
+  <si>
     <t>Bat Fever</t>
   </si>
   <si>
+    <t>DLM - Bat Fever.mp3</t>
+  </si>
+  <si>
+    <t>US-RRD-20-00005</t>
+  </si>
+  <si>
     <t>Cornbread</t>
   </si>
   <si>
+    <t>DLM - Cornbread.mp3</t>
+  </si>
+  <si>
+    <t>US-RRD-20-00006</t>
+  </si>
+  <si>
+    <t>All New Me v3 (Synth)</t>
+  </si>
+  <si>
+    <t>DLM - All New Me v3 (Synth).mp3</t>
+  </si>
+  <si>
+    <t>US-RRD-20-00003</t>
+  </si>
+  <si>
     <t>Reflection Pool v2 (No BsNDrms)</t>
+  </si>
+  <si>
+    <t>DLM - Reflection Pool v2 (No BsNDrms).mp3</t>
+  </si>
+  <si>
+    <t>US-RRD-20-00008</t>
   </si>
 </sst>
 </file>
@@ -65,50 +458,1075 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:CW9"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:101">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW1" s="0" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:31">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>101</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="X2" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z2" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA2" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB2" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC2" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD2" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE2" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:31">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>105</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="V3" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="X3" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y3" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z3" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA3" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB3" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC3" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD3" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE3" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:31">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>101</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="V4" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="X4" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y4" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z4" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA4" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB4" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC4" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD4" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE4" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:31">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>101</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="W5" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="X5" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y5" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z5" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA5" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB5" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC5" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD5" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE5" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:31">
       <c r="A6" s="0" t="s">
-        <v>2</v>
+        <v>101</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="V6" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="W6" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="X6" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y6" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z6" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA6" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB6" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC6" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD6" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE6" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:31">
       <c r="A7" s="0" t="s">
-        <v>3</v>
+        <v>101</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="V7" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="X7" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y7" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z7" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA7" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB7" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC7" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD7" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE7" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:31">
       <c r="A8" s="0" t="s">
-        <v>4</v>
+        <v>105</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="V8" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="W8" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="X8" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y8" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z8" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA8" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB8" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC8" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD8" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE8" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="V9" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="X9" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y9" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z9" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA9" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB9" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC9" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD9" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE9" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/BIMetadata.xlsx
+++ b/BIMetadata.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>xx Main Version xx</t>
   </si>
@@ -319,31 +319,40 @@
     <t>N/A</t>
   </si>
   <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>DL Music</t>
+  </si>
+  <si>
+    <t>Another Chance v1 (Full)</t>
+  </si>
+  <si>
+    <t>DLM - Another Chance v1 (Full).mp3</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>DL Music</t>
-  </si>
-  <si>
-    <t>All New Me v1 (Full)</t>
-  </si>
-  <si>
-    <t>DLM - All New Me v1 (Full).mp3</t>
-  </si>
-  <si>
-    <t>undefined, undefined Vol. 40</t>
-  </si>
-  <si>
-    <t>undefined(undefined)</t>
-  </si>
-  <si>
-    <t>Fast)</t>
+    <t>Bumpers - Transitions, Driving Vol.40</t>
+  </si>
+  <si>
+    <t>Stingers (Driving)</t>
+  </si>
+  <si>
+    <t>R40-1</t>
+  </si>
+  <si>
+    <t>Joyion Cne Timmons </t>
+  </si>
+  <si>
+    <t>Derek Luff</t>
   </si>
   <si>
     <t>Songs</t>
   </si>
   <si>
-    <t>8/6/2020</t>
+    <t>Driving</t>
   </si>
   <si>
     <t>No</t>
@@ -352,73 +361,91 @@
     <t>US-RRD-20-00001</t>
   </si>
   <si>
-    <t>R40</t>
-  </si>
-  <si>
-    <t>All New Me v2 (Drums)</t>
-  </si>
-  <si>
-    <t>DLM - All New Me v2 (Drums).mp3</t>
-  </si>
-  <si>
-    <t>N/A)</t>
+    <t>ASCAP</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Original Publisher</t>
+  </si>
+  <si>
+    <t>Joyion</t>
+  </si>
+  <si>
+    <t>Timmons</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>Composer, Writer</t>
+  </si>
+  <si>
+    <t>Reflection Pool v2 (No BsNDrms)</t>
+  </si>
+  <si>
+    <t>DLM - Reflection Pool v2 (No BsNDrms).mp3</t>
+  </si>
+  <si>
+    <t>Bumpers - Transitions, Orchestral Dramatic Vol.40</t>
+  </si>
+  <si>
+    <t>Stingers (Orchestral)</t>
+  </si>
+  <si>
+    <t>R40-3</t>
+  </si>
+  <si>
+    <t>Orchestral Dramatic</t>
+  </si>
+  <si>
+    <t>US-RRD-20-00003</t>
+  </si>
+  <si>
+    <t>Cornbread</t>
+  </si>
+  <si>
+    <t>DLM - Cornbread.mp3</t>
+  </si>
+  <si>
+    <t>World Pop, Eastern Vol.40</t>
+  </si>
+  <si>
+    <t>World Pop (Eastern)</t>
+  </si>
+  <si>
+    <t>R40-2</t>
+  </si>
+  <si>
+    <t>Eastern</t>
   </si>
   <si>
     <t>US-RRD-20-00002</t>
   </si>
   <si>
-    <t>Another Chance v1 (Full)</t>
-  </si>
-  <si>
-    <t>DLM - Another Chance v1 (Full).mp3</t>
+    <t>Reflection Pool v3 (No PadNFlute)</t>
+  </si>
+  <si>
+    <t>DLM - Reflection Pool v3 (No PadNFlute).mp3</t>
+  </si>
+  <si>
+    <t>Bumpers - Transitions, Rhythmic Vol.40</t>
+  </si>
+  <si>
+    <t>Stingers (Rhythmic)</t>
+  </si>
+  <si>
+    <t>R40-4</t>
+  </si>
+  <si>
+    <t>Rhythmic</t>
   </si>
   <si>
     <t>US-RRD-20-00004</t>
-  </si>
-  <si>
-    <t>Reflection Pool v1 (No BsNDrms)</t>
-  </si>
-  <si>
-    <t>DLM - Reflection Pool v1 (No BsNDrms).mp3</t>
-  </si>
-  <si>
-    <t>US-RRD-20-00007</t>
-  </si>
-  <si>
-    <t>Bat Fever</t>
-  </si>
-  <si>
-    <t>DLM - Bat Fever.mp3</t>
-  </si>
-  <si>
-    <t>US-RRD-20-00005</t>
-  </si>
-  <si>
-    <t>Cornbread</t>
-  </si>
-  <si>
-    <t>DLM - Cornbread.mp3</t>
-  </si>
-  <si>
-    <t>US-RRD-20-00006</t>
-  </si>
-  <si>
-    <t>All New Me v3 (Synth)</t>
-  </si>
-  <si>
-    <t>DLM - All New Me v3 (Synth).mp3</t>
-  </si>
-  <si>
-    <t>US-RRD-20-00003</t>
-  </si>
-  <si>
-    <t>Reflection Pool v2 (No BsNDrms)</t>
-  </si>
-  <si>
-    <t>DLM - Reflection Pool v2 (No BsNDrms).mp3</t>
-  </si>
-  <si>
-    <t>US-RRD-20-00008</t>
   </si>
 </sst>
 </file>
@@ -458,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CW9"/>
+  <dimension ref="A1:CZ5"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -769,7 +796,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:104">
       <c r="A2" s="0" t="s">
         <v>101</v>
       </c>
@@ -789,84 +816,303 @@
         <v>105</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Y2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z2" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB2" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD2" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="Z2" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA2" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB2" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC2" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD2" s="0" t="s">
-        <v>102</v>
-      </c>
       <c r="AE2" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
+      </c>
+      <c r="AF2" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG2" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH2" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK2" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL2" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN2" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO2" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="AP2" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AR2" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AX2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AY2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AZ2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BB2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BE2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BF2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BG2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BI2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BJ2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BK2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BL2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BM2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BN2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BP2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BQ2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BR2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BS2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BT2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BU2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BV2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BW2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BX2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BY2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CA2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CB2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CC2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CD2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CE2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CF2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CG2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CH2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CI2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CJ2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CK2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CL2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CM2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CN2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CO2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CP2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CQ2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CR2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CS2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CT2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CU2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CV2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CW2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CX2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CY2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CZ2" s="0" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:104">
       <c r="A3" s="0" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>102</v>
@@ -878,88 +1124,307 @@
         <v>103</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="V3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="X3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z3" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="S3" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="T3" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="U3" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="V3" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="W3" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="X3" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y3" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z3" s="0" t="s">
-        <v>102</v>
-      </c>
       <c r="AA3" s="0" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AB3" s="0" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="AC3" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AD3" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AE3" s="0" t="s">
-        <v>113</v>
+        <v>106</v>
+      </c>
+      <c r="AF3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AQ3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AR3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AX3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AY3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AZ3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BB3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BE3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BF3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BG3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BI3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BJ3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BK3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BL3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BM3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BN3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BP3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BQ3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BR3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BS3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BT3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BU3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BV3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BW3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BX3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BY3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CA3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CB3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CC3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CD3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CE3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CF3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CG3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CH3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CI3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CJ3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CK3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CL3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CM3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CN3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CO3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CP3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CQ3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CR3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CS3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CT3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CU3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CV3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CW3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CX3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CY3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CZ3" s="0" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:104">
       <c r="A4" s="0" t="s">
         <v>101</v>
       </c>
@@ -973,88 +1438,307 @@
         <v>103</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="X4" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Y4" s="0" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="Z4" s="0" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="AA4" s="0" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="AB4" s="0" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="AC4" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AD4" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AE4" s="0" t="s">
-        <v>113</v>
+        <v>106</v>
+      </c>
+      <c r="AF4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AQ4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AR4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AX4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AY4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AZ4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BB4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BE4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BF4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BG4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BI4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BJ4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BK4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BL4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BM4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BN4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BP4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BQ4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BR4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BS4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BT4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BU4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BV4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BW4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BX4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BY4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CA4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CB4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CC4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CD4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CE4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CF4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CG4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CH4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CI4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CJ4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CK4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CL4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CM4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CN4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CO4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CP4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CQ4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CR4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CS4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CT4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CU4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CV4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CW4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CX4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CY4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CZ4" s="0" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:104">
       <c r="A5" s="0" t="s">
         <v>101</v>
       </c>
@@ -1068,465 +1752,304 @@
         <v>103</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="W5" s="0" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Y5" s="0" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="Z5" s="0" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="AA5" s="0" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="AB5" s="0" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="AC5" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AD5" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AE5" s="0" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31">
-      <c r="A6" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="S6" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="T6" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="U6" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="V6" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="W6" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="X6" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y6" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z6" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA6" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB6" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC6" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD6" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE6" s="0" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31">
-      <c r="A7" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q7" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="R7" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="S7" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="T7" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="U7" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="V7" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="W7" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="X7" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y7" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z7" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA7" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB7" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC7" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD7" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE7" s="0" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31">
-      <c r="A8" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="P8" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q8" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="R8" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="S8" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="T8" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="U8" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="V8" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="W8" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="X8" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y8" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z8" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA8" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB8" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC8" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD8" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE8" s="0" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31">
-      <c r="A9" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="P9" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q9" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="R9" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="S9" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="T9" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="U9" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="V9" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="W9" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="X9" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y9" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z9" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA9" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB9" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC9" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD9" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE9" s="0" t="s">
-        <v>113</v>
+        <v>106</v>
+      </c>
+      <c r="AF5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AQ5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AR5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AX5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AY5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AZ5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BB5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BE5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BF5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BG5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BI5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BJ5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BK5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BL5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BM5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BN5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BP5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BQ5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BR5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BS5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BT5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BU5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BV5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BW5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BX5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BY5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CA5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CB5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CC5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CD5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CE5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CF5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CG5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CH5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CI5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CJ5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CK5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CL5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CM5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CN5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CO5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CP5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CQ5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CR5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CS5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CT5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CU5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CV5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CW5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CX5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CY5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CZ5" s="0" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/BIMetadata.xlsx
+++ b/BIMetadata.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>xx Main Version xx</t>
   </si>
@@ -334,130 +334,115 @@
     <t>Release</t>
   </si>
   <si>
+    <t>DLM - Another Reminder v1 (Full).wav</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>DL Music</t>
+  </si>
+  <si>
+    <t>Another Reminder v4 (No Risers)</t>
+  </si>
+  <si>
+    <t>DLM - Another Reminder v4 (No Risers).wav</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Jazz, Smooth Jazz Vol.42</t>
+  </si>
+  <si>
+    <t>DLM-BI-176-R42</t>
+  </si>
+  <si>
+    <t>Jazz (Smooth)</t>
+  </si>
+  <si>
+    <t>2020422</t>
+  </si>
+  <si>
+    <t>Hal  Stephens </t>
+  </si>
+  <si>
+    <t>Derek Luff</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t> </t>
-  </si>
-  <si>
-    <t>DL Music</t>
-  </si>
-  <si>
-    <t>Another Chance v1 (Full)</t>
-  </si>
-  <si>
-    <t>DLM - Another Chance v1 (Full).mp3</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Bumpers - Transitions, Driving Vol.40</t>
-  </si>
-  <si>
-    <t>DLM-BI-103-R40</t>
-  </si>
-  <si>
-    <t>Stingers (Driving)</t>
-  </si>
-  <si>
-    <t>2020401</t>
-  </si>
-  <si>
-    <t>Joyion Cne Timmons </t>
-  </si>
-  <si>
-    <t>Derek Luff</t>
-  </si>
-  <si>
     <t>Songs</t>
   </si>
   <si>
-    <t>08-19-2020</t>
+    <t>08-20-2020</t>
   </si>
   <si>
     <t>70's,80's,Acoustic</t>
   </si>
   <si>
-    <t>Driving</t>
+    <t>Smooth Jazz</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>US-RRD-20-00002</t>
+  </si>
+  <si>
+    <t>ASCAP</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Original Publisher</t>
+  </si>
+  <si>
+    <t>Hal</t>
+  </si>
+  <si>
+    <t>Stephens</t>
+  </si>
+  <si>
+    <t>Composer, Writer</t>
+  </si>
+  <si>
+    <t>Accordion,Acoustic Guitar,Alto Sax</t>
+  </si>
+  <si>
+    <t>R42</t>
+  </si>
+  <si>
+    <t>Nothing In This World v1 (Full)</t>
+  </si>
+  <si>
+    <t>DLM - Nothing In This World v1 (Full).wav</t>
+  </si>
+  <si>
+    <t>N/A, N/A Vol.42</t>
+  </si>
+  <si>
+    <t>DLM-BI-NaN-R42</t>
+  </si>
+  <si>
+    <t>2020423</t>
+  </si>
+  <si>
+    <t>US-RRD-20-00003</t>
+  </si>
+  <si>
+    <t>Another Reminder v1 (Full)</t>
+  </si>
+  <si>
+    <t>2020421</t>
+  </si>
+  <si>
     <t>US-RRD-20-00001</t>
-  </si>
-  <si>
-    <t>ASCAP</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>Original Publisher</t>
-  </si>
-  <si>
-    <t>Joyion</t>
-  </si>
-  <si>
-    <t>Timmons</t>
-  </si>
-  <si>
-    <t>Composer, Writer</t>
-  </si>
-  <si>
-    <t>xx</t>
-  </si>
-  <si>
-    <t>Accordion,Acoustic Guitar,Alto Sax</t>
-  </si>
-  <si>
-    <t>R40</t>
-  </si>
-  <si>
-    <t>Reflection Pool v2 (No BsNDrms)</t>
-  </si>
-  <si>
-    <t>DLM - Reflection Pool v2 (No BsNDrms).mp3</t>
-  </si>
-  <si>
-    <t>N/A, N/A Vol.40</t>
-  </si>
-  <si>
-    <t>DLM-BI-NaN-R40</t>
-  </si>
-  <si>
-    <t>2020403</t>
-  </si>
-  <si>
-    <t>US-RRD-20-00003</t>
-  </si>
-  <si>
-    <t>Cornbread</t>
-  </si>
-  <si>
-    <t>DLM - Cornbread.mp3</t>
-  </si>
-  <si>
-    <t>2020402</t>
-  </si>
-  <si>
-    <t>US-RRD-20-00002</t>
-  </si>
-  <si>
-    <t>Reflection Pool v3 (No PadNFlute)</t>
-  </si>
-  <si>
-    <t>DLM - Reflection Pool v3 (No PadNFlute).mp3</t>
-  </si>
-  <si>
-    <t>2020404</t>
-  </si>
-  <si>
-    <t>US-RRD-20-00004</t>
   </si>
 </sst>
 </file>
@@ -497,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DC5"/>
+  <dimension ref="A1:DC4"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -876,25 +861,25 @@
         <v>115</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S2" s="0" t="s">
         <v>112</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X2" s="0" t="s">
         <v>112</v>
@@ -903,13 +888,13 @@
         <v>112</v>
       </c>
       <c r="Z2" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA2" s="0" t="s">
         <v>112</v>
       </c>
       <c r="AB2" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AC2" s="0" t="s">
         <v>112</v>
@@ -918,49 +903,49 @@
         <v>118</v>
       </c>
       <c r="AE2" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AF2" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG2" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH2" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI2" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ2" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK2" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL2" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM2" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN2" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="AG2" s="0" t="s">
+      <c r="AO2" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="AH2" s="0" t="s">
+      <c r="AP2" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="AI2" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ2" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="AK2" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="AL2" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM2" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="AN2" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO2" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="AP2" s="0" t="s">
-        <v>127</v>
-      </c>
       <c r="AQ2" s="0" t="s">
         <v>112</v>
       </c>
       <c r="AR2" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AS2" s="0" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="AT2" s="0" t="s">
         <v>112</v>
@@ -981,7 +966,7 @@
         <v>112</v>
       </c>
       <c r="AZ2" s="0" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="BA2" s="0" t="s">
         <v>112</v>
@@ -1005,7 +990,7 @@
         <v>112</v>
       </c>
       <c r="BH2" s="0" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="BI2" s="0" t="s">
         <v>112</v>
@@ -1026,7 +1011,7 @@
         <v>112</v>
       </c>
       <c r="BO2" s="0" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="BP2" s="0" t="s">
         <v>112</v>
@@ -1050,7 +1035,7 @@
         <v>112</v>
       </c>
       <c r="BW2" s="0" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="BX2" s="0" t="s">
         <v>112</v>
@@ -1071,7 +1056,7 @@
         <v>112</v>
       </c>
       <c r="CD2" s="0" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="CE2" s="0" t="s">
         <v>112</v>
@@ -1095,7 +1080,7 @@
         <v>112</v>
       </c>
       <c r="CL2" s="0" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="CM2" s="0" t="s">
         <v>112</v>
@@ -1116,7 +1101,7 @@
         <v>112</v>
       </c>
       <c r="CS2" s="0" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="CT2" s="0" t="s">
         <v>112</v>
@@ -1151,7 +1136,7 @@
     </row>
     <row r="3" spans="1:107">
       <c r="A3" s="0" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>108</v>
@@ -1178,10 +1163,10 @@
         <v>138</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>139</v>
@@ -1196,29 +1181,29 @@
         <v>112</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="R3" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="V3" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="W3" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="S3" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="T3" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="U3" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="V3" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="W3" s="0" t="s">
-        <v>107</v>
-      </c>
       <c r="X3" s="0" t="s">
         <v>112</v>
       </c>
@@ -1226,7 +1211,7 @@
         <v>112</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA3" s="0" t="s">
         <v>112</v>
@@ -1238,7 +1223,7 @@
         <v>112</v>
       </c>
       <c r="AD3" s="0" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="AE3" s="0" t="s">
         <v>112</v>
@@ -1259,7 +1244,7 @@
         <v>112</v>
       </c>
       <c r="AK3" s="0" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="AL3" s="0" t="s">
         <v>112</v>
@@ -1283,7 +1268,7 @@
         <v>112</v>
       </c>
       <c r="AS3" s="0" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="AT3" s="0" t="s">
         <v>112</v>
@@ -1304,7 +1289,7 @@
         <v>112</v>
       </c>
       <c r="AZ3" s="0" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="BA3" s="0" t="s">
         <v>112</v>
@@ -1328,7 +1313,7 @@
         <v>112</v>
       </c>
       <c r="BH3" s="0" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="BI3" s="0" t="s">
         <v>112</v>
@@ -1349,7 +1334,7 @@
         <v>112</v>
       </c>
       <c r="BO3" s="0" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="BP3" s="0" t="s">
         <v>112</v>
@@ -1373,7 +1358,7 @@
         <v>112</v>
       </c>
       <c r="BW3" s="0" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="BX3" s="0" t="s">
         <v>112</v>
@@ -1394,7 +1379,7 @@
         <v>112</v>
       </c>
       <c r="CD3" s="0" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="CE3" s="0" t="s">
         <v>112</v>
@@ -1418,7 +1403,7 @@
         <v>112</v>
       </c>
       <c r="CL3" s="0" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="CM3" s="0" t="s">
         <v>112</v>
@@ -1439,7 +1424,7 @@
         <v>112</v>
       </c>
       <c r="CS3" s="0" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="CT3" s="0" t="s">
         <v>112</v>
@@ -1474,7 +1459,7 @@
     </row>
     <row r="4" spans="1:107">
       <c r="A4" s="0" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>108</v>
@@ -1489,7 +1474,7 @@
         <v>141</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>112</v>
@@ -1501,67 +1486,67 @@
         <v>138</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="L4" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="V4" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="X4" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y4" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z4" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA4" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB4" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="M4" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="S4" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="T4" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="U4" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="V4" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="W4" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="X4" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y4" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z4" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA4" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB4" s="0" t="s">
-        <v>144</v>
-      </c>
       <c r="AC4" s="0" t="s">
         <v>112</v>
       </c>
       <c r="AD4" s="0" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="AE4" s="0" t="s">
         <v>112</v>
@@ -1582,7 +1567,7 @@
         <v>112</v>
       </c>
       <c r="AK4" s="0" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="AL4" s="0" t="s">
         <v>112</v>
@@ -1606,7 +1591,7 @@
         <v>112</v>
       </c>
       <c r="AS4" s="0" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="AT4" s="0" t="s">
         <v>112</v>
@@ -1627,7 +1612,7 @@
         <v>112</v>
       </c>
       <c r="AZ4" s="0" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="BA4" s="0" t="s">
         <v>112</v>
@@ -1651,7 +1636,7 @@
         <v>112</v>
       </c>
       <c r="BH4" s="0" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="BI4" s="0" t="s">
         <v>112</v>
@@ -1672,7 +1657,7 @@
         <v>112</v>
       </c>
       <c r="BO4" s="0" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="BP4" s="0" t="s">
         <v>112</v>
@@ -1696,7 +1681,7 @@
         <v>112</v>
       </c>
       <c r="BW4" s="0" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="BX4" s="0" t="s">
         <v>112</v>
@@ -1717,7 +1702,7 @@
         <v>112</v>
       </c>
       <c r="CD4" s="0" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="CE4" s="0" t="s">
         <v>112</v>
@@ -1741,7 +1726,7 @@
         <v>112</v>
       </c>
       <c r="CL4" s="0" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="CM4" s="0" t="s">
         <v>112</v>
@@ -1762,7 +1747,7 @@
         <v>112</v>
       </c>
       <c r="CS4" s="0" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="CT4" s="0" t="s">
         <v>112</v>
@@ -1792,329 +1777,6 @@
         <v>112</v>
       </c>
       <c r="DC4" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:107">
-      <c r="A5" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="S5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="T5" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="U5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="V5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="W5" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="X5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z5" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB5" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD5" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="AK5" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="AL5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="AM5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="AN5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="AR5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS5" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="AT5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="AV5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="AW5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="AX5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="AY5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="AZ5" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="BA5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="BB5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="BC5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="BD5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="BE5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="BF5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="BG5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="BH5" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="BI5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="BJ5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="BK5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="BL5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="BM5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="BN5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="BO5" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="BP5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="BQ5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="BR5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="BS5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="BT5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="BU5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="BV5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="BW5" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="BX5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="BY5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="BZ5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="CA5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="CB5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="CC5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="CD5" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="CE5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="CF5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="CG5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="CI5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="CJ5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="CL5" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="CM5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="CN5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="CO5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="CP5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="CQ5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="CR5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="CS5" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="CT5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="CU5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="CV5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="CW5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="CX5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="CY5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="CZ5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="DA5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="DB5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="DC5" s="0" t="s">
         <v>134</v>
       </c>
     </row>
